--- a/medicine/Enfance/Moulin_à_vent_(jouet)/Moulin_à_vent_(jouet).xlsx
+++ b/medicine/Enfance/Moulin_à_vent_(jouet)/Moulin_à_vent_(jouet).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Moulin_%C3%A0_vent_(jouet)</t>
+          <t>Moulin_à_vent_(jouet)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un moulin à vent ou moulinet, aussi appelé virevent au Québec[1], est un jouet composé d'une roue munie de pales en papier ou en plastique, dont l'axe est fixé à un bâtonnet. Sa forme lui permet de tourner sous l'effet du vent ou quand on souffle dessus.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un moulin à vent ou moulinet, aussi appelé virevent au Québec, est un jouet composé d'une roue munie de pales en papier ou en plastique, dont l'axe est fixé à un bâtonnet. Sa forme lui permet de tourner sous l'effet du vent ou quand on souffle dessus.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Moulin_%C3%A0_vent_(jouet)</t>
+          <t>Moulin_à_vent_(jouet)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des dessins du XIVe siècle représentent des moulins à vent avec des ailes en parchemin[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des dessins du XIVe siècle représentent des moulins à vent avec des ailes en parchemin.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Moulin_%C3%A0_vent_(jouet)</t>
+          <t>Moulin_à_vent_(jouet)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Dans la culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans l'œuvre de Rabelais, le géant Gargantua reçoit pour son anniversaire un tel jouet fabriqué avec "des ailes d'un moulin à vent de Mirebalais"[2], c'est-à-dire aux dimensions d'un véritable moulin. Le terme utilisé par Rabelais pour le moulinet est virolet (parfois orthographié virollet), qui a des connotations sexuelles liées au phallus et à la vérole (Panurge a la devise "il faut que le virolet trotte")[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l'œuvre de Rabelais, le géant Gargantua reçoit pour son anniversaire un tel jouet fabriqué avec "des ailes d'un moulin à vent de Mirebalais", c'est-à-dire aux dimensions d'un véritable moulin. Le terme utilisé par Rabelais pour le moulinet est virolet (parfois orthographié virollet), qui a des connotations sexuelles liées au phallus et à la vérole (Panurge a la devise "il faut que le virolet trotte").
 </t>
         </is>
       </c>
